--- a/data/trans_orig/P21C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31020</v>
+        <v>32179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43277</v>
+        <v>43806</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7895968448625871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.633978156805974</v>
+        <v>0.6576620692191303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.884495223913681</v>
+        <v>0.8952894907587143</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>41128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35722</v>
+        <v>36021</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43237</v>
+        <v>43245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9299401407188262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8077142654498206</v>
+        <v>0.8144763995811842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9776405761456651</v>
+        <v>0.9778222544839457</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>79762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71716</v>
+        <v>70976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85533</v>
+        <v>85534</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8562254508939556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7698543831193491</v>
+        <v>0.76190919968447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9181839852745358</v>
+        <v>0.9181903712992757</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5652</v>
+        <v>5123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17909</v>
+        <v>16750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2104031551374129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1155047760863191</v>
+        <v>0.1047105092412854</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3660218431940263</v>
+        <v>0.3423379307808696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8504</v>
+        <v>8205</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07005985928117371</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02235942385433484</v>
+        <v>0.02217774551605429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.192285734550179</v>
+        <v>0.1855236004188151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -857,19 +857,19 @@
         <v>13393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7622</v>
+        <v>7621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21439</v>
+        <v>22179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1437745491060444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08181601472546407</v>
+        <v>0.08180962870072483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2301456168806509</v>
+        <v>0.2380908003155305</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>42744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37816</v>
+        <v>36890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45782</v>
+        <v>45660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9138695684582712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8085020335690296</v>
+        <v>0.7886927219022823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9788056090894991</v>
+        <v>0.97619741541655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -982,19 +982,19 @@
         <v>46622</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39185</v>
+        <v>38753</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50744</v>
+        <v>50897</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8479720594318002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7127199792934271</v>
+        <v>0.7048497960709412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9229610146142042</v>
+        <v>0.9257315927165695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -1003,19 +1003,19 @@
         <v>89366</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81361</v>
+        <v>81927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94584</v>
+        <v>94902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8782632560372731</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7995948886610525</v>
+        <v>0.8051512624578218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9295468233956667</v>
+        <v>0.9326661880446088</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>4029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>991</v>
+        <v>1113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8957</v>
+        <v>9883</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08613043154172881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02119439091050093</v>
+        <v>0.02380258458344995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1914979664309684</v>
+        <v>0.2113072780977172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1053,19 +1053,19 @@
         <v>8358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4236</v>
+        <v>4083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15795</v>
+        <v>16227</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1520279405681997</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07703898538579568</v>
+        <v>0.07426840728343051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2872800207065707</v>
+        <v>0.2951502039290585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1074,19 +1074,19 @@
         <v>12387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7169</v>
+        <v>6851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20392</v>
+        <v>19826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1217367439627269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07045317660433348</v>
+        <v>0.06733381195539127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2004051113389477</v>
+        <v>0.1948487375421783</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>65029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59292</v>
+        <v>59495</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67980</v>
+        <v>67976</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9434381982149213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8601981359787215</v>
+        <v>0.8631464668927699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9862512814083952</v>
+        <v>0.9861840361280167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>29634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23803</v>
+        <v>23656</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33436</v>
+        <v>33460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8562097784782235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6877264959858133</v>
+        <v>0.6834822397327559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9660524532817867</v>
+        <v>0.9667420971692847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1220,19 +1220,19 @@
         <v>94664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86472</v>
+        <v>87409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99264</v>
+        <v>99490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9142796253436621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8351671680818799</v>
+        <v>0.8442125154106606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9587134798150628</v>
+        <v>0.960893177722302</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>3899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9636</v>
+        <v>9433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05656180178507875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0137487185916047</v>
+        <v>0.01381596387198324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1398018640212784</v>
+        <v>0.1368535331072302</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1270,19 +1270,19 @@
         <v>4977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1175</v>
+        <v>1151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10808</v>
+        <v>10955</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1437902215217764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03394754671821334</v>
+        <v>0.0332579028307152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3122735040141867</v>
+        <v>0.3165177602672442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1291,19 +1291,19 @@
         <v>8875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4275</v>
+        <v>4049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17067</v>
+        <v>16130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08572037465633782</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04128652018493721</v>
+        <v>0.03910682227769809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1648328319181203</v>
+        <v>0.1557874845893395</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>140097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130140</v>
+        <v>129726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148116</v>
+        <v>147616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8655299934638918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8040157744715375</v>
+        <v>0.8014579380482736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9150700152721595</v>
+        <v>0.911982543114347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -1416,19 +1416,19 @@
         <v>113205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105743</v>
+        <v>104824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119204</v>
+        <v>118586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8966224656543738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.837525245605514</v>
+        <v>0.8302451948859458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9441402404098662</v>
+        <v>0.9392463645282514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -1437,19 +1437,19 @@
         <v>253303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>240045</v>
+        <v>241980</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>262877</v>
+        <v>263489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8791550192819643</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8331390377941512</v>
+        <v>0.8398567205620725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9123832534375416</v>
+        <v>0.9145066680896924</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>21766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13747</v>
+        <v>14247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31723</v>
+        <v>32137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1344700065361082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08492998472784082</v>
+        <v>0.08801745688565329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1959842255284632</v>
+        <v>0.1985420619517265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1487,19 +1487,19 @@
         <v>13052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7053</v>
+        <v>7671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20514</v>
+        <v>21433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1033775343456262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0558597595901339</v>
+        <v>0.0607536354717487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1624747543944862</v>
+        <v>0.1697548051140543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1508,19 +1508,19 @@
         <v>34818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25244</v>
+        <v>24632</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48076</v>
+        <v>46141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1208449807180357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08761674656245821</v>
+        <v>0.08549333191030757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1668609622058486</v>
+        <v>0.1601432794379274</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>29645</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24470</v>
+        <v>23289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32207</v>
+        <v>32247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8971467696833315</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7405361406414224</v>
+        <v>0.7047833093252219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.974655180841962</v>
+        <v>0.9758865744343362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -1633,19 +1633,19 @@
         <v>92158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83346</v>
+        <v>83880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99103</v>
+        <v>98868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8465282726286704</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7655856134708817</v>
+        <v>0.7704852827643585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9103231709903127</v>
+        <v>0.9081627799065973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -1654,19 +1654,19 @@
         <v>121803</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112272</v>
+        <v>111772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129045</v>
+        <v>129066</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.858314793764151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7911514178781131</v>
+        <v>0.7876321470531652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9093492829499878</v>
+        <v>0.909500341268397</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>837</v>
+        <v>797</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8574</v>
+        <v>9755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1028532303166685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02534481915803796</v>
+        <v>0.02411342556566377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.259463859358578</v>
+        <v>0.2952166906747781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1704,19 +1704,19 @@
         <v>16708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9763</v>
+        <v>9998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25520</v>
+        <v>24986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1534717273713296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08967682900968733</v>
+        <v>0.09183722009340259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2344143865291183</v>
+        <v>0.229514717235642</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1725,19 +1725,19 @@
         <v>20106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12864</v>
+        <v>12843</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29637</v>
+        <v>30137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.141685206235849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09065071705001213</v>
+        <v>0.09049965873160309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2088485821218871</v>
+        <v>0.2123678529468348</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>23351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17754</v>
+        <v>17250</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>26033</v>
@@ -1838,7 +1838,7 @@
         <v>0.8969687146853168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6819949023487647</v>
+        <v>0.6626171066082226</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1850,19 +1850,19 @@
         <v>171653</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162169</v>
+        <v>162727</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178565</v>
+        <v>179744</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8960641306822384</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8465587646696838</v>
+        <v>0.8494712852590052</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9321493339770861</v>
+        <v>0.9383042813592614</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -1871,19 +1871,19 @@
         <v>195004</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183984</v>
+        <v>183923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202636</v>
+        <v>202741</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.896172356160545</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.845530122465045</v>
+        <v>0.8452498600918444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9312471978001199</v>
+        <v>0.9317334087642259</v>
       </c>
     </row>
     <row r="20">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8279</v>
+        <v>8783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1030312853146832</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3180050976512352</v>
+        <v>0.337382893391778</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -1921,19 +1921,19 @@
         <v>19910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12998</v>
+        <v>11819</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29394</v>
+        <v>28836</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1039358693177616</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06785066602291363</v>
+        <v>0.0616957186407385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1534412353303158</v>
+        <v>0.1505287147409946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1942,19 +1942,19 @@
         <v>22592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14960</v>
+        <v>14855</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33612</v>
+        <v>33673</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.103827643839455</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06875280219988006</v>
+        <v>0.06826659123577405</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1544698775349549</v>
+        <v>0.1547501399081556</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>339501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>324715</v>
+        <v>324957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>351175</v>
+        <v>350941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8805179401995737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8421682343662917</v>
+        <v>0.8427960207553877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9107955171546089</v>
+        <v>0.910187998699395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>477</v>
@@ -2067,19 +2067,19 @@
         <v>494398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>477931</v>
+        <v>478829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>508194</v>
+        <v>507889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8820631750228606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8526832268463296</v>
+        <v>0.8542854186138042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9066758689427471</v>
+        <v>0.9061326820267992</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>811</v>
@@ -2088,19 +2088,19 @@
         <v>833899</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>812817</v>
+        <v>810953</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>852861</v>
+        <v>852394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8814334167996908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8591493176540953</v>
+        <v>0.8571794680427558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.901475350011596</v>
+        <v>0.9009820523525092</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>46069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34395</v>
+        <v>34629</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60855</v>
+        <v>60613</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1194820598004262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08920448284539102</v>
+        <v>0.08981200130060493</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1578317656337083</v>
+        <v>0.1572039792446123</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -2138,19 +2138,19 @@
         <v>66104</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>52308</v>
+        <v>52613</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>82571</v>
+        <v>81673</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1179368249771394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09332413105725289</v>
+        <v>0.09386731797320079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1473167731536707</v>
+        <v>0.1457145813861958</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>111</v>
@@ -2159,19 +2159,19 @@
         <v>112173</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>93211</v>
+        <v>93678</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>133255</v>
+        <v>135119</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1185665832003092</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09852464998840399</v>
+        <v>0.09901794764749074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1408506823459046</v>
+        <v>0.1428205319572441</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>30541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23780</v>
+        <v>24090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33631</v>
+        <v>34459</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8584869553446454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6684464613937389</v>
+        <v>0.6771747047152765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9453660518487547</v>
+        <v>0.9686436669764243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2526,7 +2526,7 @@
         <v>49803</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45671</v>
+        <v>45136</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>50905</v>
@@ -2535,7 +2535,7 @@
         <v>0.9783597313238368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8971837903012772</v>
+        <v>0.8866689607632144</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         <v>80344</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72673</v>
+        <v>73365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84372</v>
+        <v>84447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9290476239584533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8403397314692049</v>
+        <v>0.8483492291089105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9756196724885207</v>
+        <v>0.9764895605260865</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>5034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1944</v>
+        <v>1116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11795</v>
+        <v>11485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1415130446553547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05463394815124525</v>
+        <v>0.03135633302357572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3315535386062613</v>
+        <v>0.3228252952847234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5234</v>
+        <v>5769</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02164026867616321</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1028162096987243</v>
+        <v>0.1133310392367874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -2618,19 +2618,19 @@
         <v>6136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2108</v>
+        <v>2033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13807</v>
+        <v>13115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07095237604154667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02438032751147933</v>
+        <v>0.02351043947391352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1596602685307941</v>
+        <v>0.1516507708910897</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>37518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33292</v>
+        <v>32101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39752</v>
+        <v>39693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9227803028527876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8188362983646292</v>
+        <v>0.7895250264147856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9777050056058288</v>
+        <v>0.9762665731098062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -2743,19 +2743,19 @@
         <v>54311</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46621</v>
+        <v>46580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58155</v>
+        <v>58164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9052611965018025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7770814651531452</v>
+        <v>0.7763995497006311</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9693246053391109</v>
+        <v>0.9694730555793065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -2764,19 +2764,19 @@
         <v>91830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82226</v>
+        <v>83714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96731</v>
+        <v>96510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9123379150858509</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8169224103694481</v>
+        <v>0.8317130994000851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9610335311435587</v>
+        <v>0.9588374178874064</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>3140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7366</v>
+        <v>8557</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0772196971472124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02229499439417116</v>
+        <v>0.02373342689019374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1811637016353709</v>
+        <v>0.2104749735852143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2814,19 +2814,19 @@
         <v>5684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13374</v>
+        <v>13415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09473880349819749</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03067539466088916</v>
+        <v>0.03052694442069346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.222918534846855</v>
+        <v>0.2236004502993689</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2835,19 +2835,19 @@
         <v>8823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3922</v>
+        <v>4143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18427</v>
+        <v>16939</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08766208491414905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03896646885644125</v>
+        <v>0.04116258211259355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1830775896305519</v>
+        <v>0.1682869005999149</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>84203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75018</v>
+        <v>75053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89535</v>
+        <v>89696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8797277314003747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.783761309647571</v>
+        <v>0.7841298944927069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9354299632590478</v>
+        <v>0.9371164294245661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2960,19 +2960,19 @@
         <v>23407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18731</v>
+        <v>18282</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26457</v>
+        <v>26479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8519496060917973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6817312554175702</v>
+        <v>0.6654043490745943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9629472259155188</v>
+        <v>0.9637526586229801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -2981,19 +2981,19 @@
         <v>107610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98306</v>
+        <v>98301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114741</v>
+        <v>114153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8735324635878537</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7980008351944182</v>
+        <v>0.7979619048411711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9314156338120101</v>
+        <v>0.9266383114700572</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>11512</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6180</v>
+        <v>6019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20697</v>
+        <v>20662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1202722685996252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0645700367409521</v>
+        <v>0.06288357057543398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.216238690352429</v>
+        <v>0.2158701055072937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3031,19 +3031,19 @@
         <v>4068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8744</v>
+        <v>9193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1480503939082028</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03705277408448111</v>
+        <v>0.03624734137701987</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3182687445824262</v>
+        <v>0.3345956509254054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -3052,19 +3052,19 @@
         <v>15580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8449</v>
+        <v>9037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24884</v>
+        <v>24889</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1264675364121463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06858436618798985</v>
+        <v>0.07336168852994289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2019991648055818</v>
+        <v>0.2020380951588288</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>120075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108656</v>
+        <v>108671</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129452</v>
+        <v>130031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7783235684857255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7043038276765109</v>
+        <v>0.7044009190849387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8391076094492251</v>
+        <v>0.8428560433481452</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -3177,19 +3177,19 @@
         <v>116155</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106770</v>
+        <v>105427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124483</v>
+        <v>123790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8324408850381225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7651823819399763</v>
+        <v>0.7555625249749667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8921304963979526</v>
+        <v>0.887159063974147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -3198,19 +3198,19 @@
         <v>236229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221105</v>
+        <v>220114</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249710</v>
+        <v>248092</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8040248265474005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7525489805967375</v>
+        <v>0.7491756129658222</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8499078274185957</v>
+        <v>0.8444002121371603</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>34199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24822</v>
+        <v>24243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45618</v>
+        <v>45603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2216764315142745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1608923905507749</v>
+        <v>0.1571439566518548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2956961723234891</v>
+        <v>0.2955990809150613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -3248,19 +3248,19 @@
         <v>23380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15052</v>
+        <v>15745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32765</v>
+        <v>34108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1675591149618775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1078695036020474</v>
+        <v>0.112840936025853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2348176180600237</v>
+        <v>0.2444374750250334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -3269,19 +3269,19 @@
         <v>57579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44098</v>
+        <v>45716</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72703</v>
+        <v>73694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1959751734525995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1500921725814044</v>
+        <v>0.1555997878628398</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2474510194032629</v>
+        <v>0.2508243870341779</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>46311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39469</v>
+        <v>39893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51182</v>
+        <v>51391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8223413830136055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7008542749259485</v>
+        <v>0.7083790460858184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9088327550291966</v>
+        <v>0.9125557102679623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -3394,19 +3394,19 @@
         <v>124192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113516</v>
+        <v>113843</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132652</v>
+        <v>132610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8253465394027323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7544006975795278</v>
+        <v>0.7565729688444305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.881570890477094</v>
+        <v>0.8812930141517689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -3415,19 +3415,19 @@
         <v>170503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158937</v>
+        <v>158306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181536</v>
+        <v>181361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8245281242538102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7685980292954314</v>
+        <v>0.7655474697009284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8778857667096683</v>
+        <v>0.8770397145546763</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>10005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5134</v>
+        <v>4925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16847</v>
+        <v>16423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1776586169863945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09116724497080349</v>
+        <v>0.0874442897320377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2991457250740528</v>
+        <v>0.2916209539141817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -3465,19 +3465,19 @@
         <v>26280</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17820</v>
+        <v>17862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36956</v>
+        <v>36629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1746534605972677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.118429109522906</v>
+        <v>0.1187069858482315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2455993024204725</v>
+        <v>0.24342703115557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -3486,19 +3486,19 @@
         <v>36285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25252</v>
+        <v>25427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47851</v>
+        <v>48482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1754718757461898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.122114233290332</v>
+        <v>0.1229602854453237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2314019707045688</v>
+        <v>0.2344525302990716</v>
       </c>
     </row>
     <row r="18">
@@ -3590,7 +3590,7 @@
         <v>28787</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25209</v>
+        <v>24577</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>29768</v>
@@ -3599,7 +3599,7 @@
         <v>0.9670342224360653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8468530706813139</v>
+        <v>0.8256272475598907</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -3611,19 +3611,19 @@
         <v>152690</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142552</v>
+        <v>141941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161393</v>
+        <v>160747</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8536787248958548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7969975273453985</v>
+        <v>0.7935850540313517</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9023348718833933</v>
+        <v>0.8987255316443884</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -3632,19 +3632,19 @@
         <v>181476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>170698</v>
+        <v>169371</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190583</v>
+        <v>190272</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8698524911569788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8181896930868134</v>
+        <v>0.8118281664553202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9135011342878004</v>
+        <v>0.9120135996029066</v>
       </c>
     </row>
     <row r="20">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4559</v>
+        <v>5191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03296577756393466</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1531469293186876</v>
+        <v>0.1743727524401097</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -3682,19 +3682,19 @@
         <v>26171</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17468</v>
+        <v>18114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36309</v>
+        <v>36920</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1463212751041452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09766512811660706</v>
+        <v>0.1012744683556116</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2030024726546017</v>
+        <v>0.2064149459686482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3703,19 +3703,19 @@
         <v>27153</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18046</v>
+        <v>18357</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37931</v>
+        <v>39258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1301475088430212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08649886571219961</v>
+        <v>0.08798640039709343</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1818103069131865</v>
+        <v>0.1881718335446798</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>347435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>331929</v>
+        <v>330158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>363243</v>
+        <v>361789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.842662811213445</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.805054918555001</v>
+        <v>0.800759441564043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8810042078351663</v>
+        <v>0.8774763211208795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>481</v>
@@ -3828,19 +3828,19 @@
         <v>520557</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>504015</v>
+        <v>500636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>537152</v>
+        <v>537084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8572479721913846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8300065347244014</v>
+        <v>0.8244423401499584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8845764734625945</v>
+        <v>0.8844652852180708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>812</v>
@@ -3849,19 +3849,19 @@
         <v>867992</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>840495</v>
+        <v>838946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>888405</v>
+        <v>888857</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8513497253442521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8243801866561161</v>
+        <v>0.8228604328524367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8713715496304566</v>
+        <v>0.8718143015533601</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>64871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49063</v>
+        <v>50517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80377</v>
+        <v>82148</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.157337188786555</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1189957921648335</v>
+        <v>0.1225236788791205</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.194945081444999</v>
+        <v>0.1992405584359569</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -3899,19 +3899,19 @@
         <v>86685</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70090</v>
+        <v>70158</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103227</v>
+        <v>106606</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1427520278086154</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1154235265374054</v>
+        <v>0.1155347147819288</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1699934652755984</v>
+        <v>0.1755576598500413</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>140</v>
@@ -3920,19 +3920,19 @@
         <v>151556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>131143</v>
+        <v>130691</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>179053</v>
+        <v>180602</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1486502746557479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1286284503695433</v>
+        <v>0.1281856984466399</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1756198133438839</v>
+        <v>0.1771395671475634</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>31552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24946</v>
+        <v>24416</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35996</v>
+        <v>36128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7958297241197979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6291966557446107</v>
+        <v>0.6158254836382968</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9079222939461983</v>
+        <v>0.9112481241914561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4287,19 +4287,19 @@
         <v>25719</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20431</v>
+        <v>20653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29755</v>
+        <v>29590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7890696642793225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.626843756583658</v>
+        <v>0.6336419272995555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9129097923430664</v>
+        <v>0.9078352853917849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4308,19 +4308,19 @@
         <v>57272</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48608</v>
+        <v>48296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63504</v>
+        <v>63564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7927796792781481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6728454209262441</v>
+        <v>0.668527403444041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8790430387671335</v>
+        <v>0.8798772313494491</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>8095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3651</v>
+        <v>3519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14701</v>
+        <v>15231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.204170275880202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09207770605380161</v>
+        <v>0.08875187580854416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3708033442553892</v>
+        <v>0.3841745163617034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4358,19 +4358,19 @@
         <v>6875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2839</v>
+        <v>3004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12163</v>
+        <v>11941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2109303357206775</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08709020765693351</v>
+        <v>0.0921647146082151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.373156243416342</v>
+        <v>0.3663580727004447</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4379,19 +4379,19 @@
         <v>14970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8738</v>
+        <v>8678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23634</v>
+        <v>23946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.207220320721852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1209569612328667</v>
+        <v>0.1201227686505509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3271545790737558</v>
+        <v>0.3314725965559591</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>17850</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13552</v>
+        <v>13393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20834</v>
+        <v>20887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8152690870941194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6189586447931192</v>
+        <v>0.6116977428316052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9515349615470777</v>
+        <v>0.9539609149535492</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4504,19 +4504,19 @@
         <v>39770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33440</v>
+        <v>33627</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44523</v>
+        <v>44993</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8095789028701075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6807309765140044</v>
+        <v>0.6845386538996717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9063339259479409</v>
+        <v>0.915914294771273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -4525,19 +4525,19 @@
         <v>57620</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50147</v>
+        <v>50452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63180</v>
+        <v>63505</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8113331447038337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7061035650434115</v>
+        <v>0.7104060484449586</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.889617706710901</v>
+        <v>0.8941930662356627</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>4045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1061</v>
+        <v>1008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8343</v>
+        <v>8502</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1847309129058806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04846503845292223</v>
+        <v>0.04603908504645071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3810413552068805</v>
+        <v>0.3883022571683948</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4575,19 +4575,19 @@
         <v>9354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4601</v>
+        <v>4131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15684</v>
+        <v>15497</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1904210971298925</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09366607405205907</v>
+        <v>0.08408570522872716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3192690234859955</v>
+        <v>0.3154613461003284</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -4596,19 +4596,19 @@
         <v>13399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7839</v>
+        <v>7514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20872</v>
+        <v>20567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1886668552961663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1103822932890989</v>
+        <v>0.1058069337643371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2938964349565886</v>
+        <v>0.2895939515550413</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>51676</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44678</v>
+        <v>44398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56389</v>
+        <v>56192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8700834261673192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7522560836234692</v>
+        <v>0.74754741960279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.949433156633914</v>
+        <v>0.9461204448791262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4721,7 +4721,7 @@
         <v>14173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9538</v>
+        <v>9295</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>16773</v>
@@ -4730,7 +4730,7 @@
         <v>0.8449861215711151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5686285050243376</v>
+        <v>0.5541569772936833</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -4742,19 +4742,19 @@
         <v>65849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57641</v>
+        <v>57717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71247</v>
+        <v>71104</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8645564020882192</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7567971716749341</v>
+        <v>0.7577951059372098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9354264113255925</v>
+        <v>0.9335528223725217</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>7716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3003</v>
+        <v>3200</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14714</v>
+        <v>14994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1299165738326808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05056684336608594</v>
+        <v>0.05387955512087374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2477439163765307</v>
+        <v>0.2524525803972101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7235</v>
+        <v>7478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1550138784288849</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4313714949756624</v>
+        <v>0.445843022706318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -4813,19 +4813,19 @@
         <v>10316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4918</v>
+        <v>5061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18524</v>
+        <v>18448</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1354435979117809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.064573588674408</v>
+        <v>0.06644717762747832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2432028283250683</v>
+        <v>0.2422048940627901</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>96523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88517</v>
+        <v>87803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103697</v>
+        <v>103705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8451163698401566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7750203039678464</v>
+        <v>0.7687651102045279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9079220580408772</v>
+        <v>0.9079984369404435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -4938,19 +4938,19 @@
         <v>85434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75884</v>
+        <v>76244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92186</v>
+        <v>92814</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8097471809648362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7192333670591449</v>
+        <v>0.7226450567391229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8737465540824562</v>
+        <v>0.8796945496685624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -4959,19 +4959,19 @@
         <v>181956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168976</v>
+        <v>169837</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192128</v>
+        <v>193999</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.828132468669406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7690538008658152</v>
+        <v>0.7729748686592889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8744269853530469</v>
+        <v>0.8829435078724989</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>17690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10516</v>
+        <v>10508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25696</v>
+        <v>26410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1548836301598434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09207794195912285</v>
+        <v>0.09200156305955619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2249796960321535</v>
+        <v>0.2312348897954718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -5009,19 +5009,19 @@
         <v>20073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13321</v>
+        <v>12693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29623</v>
+        <v>29263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1902528190351638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1262534459175439</v>
+        <v>0.1203054503314364</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2807666329408552</v>
+        <v>0.2773549432608769</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -5030,19 +5030,19 @@
         <v>37763</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27591</v>
+        <v>25720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50743</v>
+        <v>49882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.171867531330594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1255730146469532</v>
+        <v>0.1170564921275011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2309461991341849</v>
+        <v>0.227025131340711</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>46539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38768</v>
+        <v>38591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53149</v>
+        <v>52461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7520677804261584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6264837478674883</v>
+        <v>0.6236240318376193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8588725862580078</v>
+        <v>0.8477648917989332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -5155,19 +5155,19 @@
         <v>63565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53676</v>
+        <v>54954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70393</v>
+        <v>71275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7545370878239095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6371449368125731</v>
+        <v>0.652320594820085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8355865769507965</v>
+        <v>0.8460526158737536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -5176,19 +5176,19 @@
         <v>110105</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99252</v>
+        <v>97343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120005</v>
+        <v>120009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7534913752006771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.679219056999685</v>
+        <v>0.666160198512428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8212401501981996</v>
+        <v>0.82127018041592</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>15343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8733</v>
+        <v>9421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23114</v>
+        <v>23291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2479322195738416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1411274137419923</v>
+        <v>0.1522351082010669</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3735162521325133</v>
+        <v>0.3763759681623808</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -5226,19 +5226,19 @@
         <v>20679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13851</v>
+        <v>12969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30568</v>
+        <v>29290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2454629121760905</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.164413423049203</v>
+        <v>0.1539473841262465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3628550631874268</v>
+        <v>0.3476794051799151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -5247,19 +5247,19 @@
         <v>36021</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26121</v>
+        <v>26117</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46874</v>
+        <v>48783</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2465086247993229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1787598498018003</v>
+        <v>0.1787298195840799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3207809430003151</v>
+        <v>0.333839801487572</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>25998</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20608</v>
+        <v>20626</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29838</v>
+        <v>30213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8037170996137916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6370964964449226</v>
+        <v>0.6376339286963125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9224226680674532</v>
+        <v>0.9340338527845646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -5372,19 +5372,19 @@
         <v>115791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106926</v>
+        <v>106715</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121832</v>
+        <v>121955</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9014095830629106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8323967342718424</v>
+        <v>0.830749920968784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9484358088138648</v>
+        <v>0.9493948385884962</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -5393,19 +5393,19 @@
         <v>141789</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>131912</v>
+        <v>131952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150091</v>
+        <v>149599</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8817580735826451</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8203352398398386</v>
+        <v>0.8205843296438811</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9333822914803231</v>
+        <v>0.9303258486115678</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>6349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2509</v>
+        <v>2134</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11739</v>
+        <v>11721</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1962829003862084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0775773319325468</v>
+        <v>0.06596614721543512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3629035035550774</v>
+        <v>0.3623660713036874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -5443,19 +5443,19 @@
         <v>12665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6624</v>
+        <v>6501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21530</v>
+        <v>21741</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09859041693708936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05156419118613526</v>
+        <v>0.05060516141150449</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1676032657281576</v>
+        <v>0.169250079031216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -5464,19 +5464,19 @@
         <v>19014</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10712</v>
+        <v>11204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28891</v>
+        <v>28851</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1182419264173549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06661770851967697</v>
+        <v>0.06967415138843225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1796647601601616</v>
+        <v>0.179415670356119</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>270138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253788</v>
+        <v>254762</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>283724</v>
+        <v>282812</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8201542109977563</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7705127018798814</v>
+        <v>0.7734722493380783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8614023493961506</v>
+        <v>0.8586335468770213</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>314</v>
@@ -5589,19 +5589,19 @@
         <v>344454</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>328548</v>
+        <v>327246</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>360314</v>
+        <v>360173</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8266234637234231</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7884532587751909</v>
+        <v>0.7853282376871331</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8646848364101211</v>
+        <v>0.8643459662109214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>567</v>
@@ -5610,19 +5610,19 @@
         <v>614592</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>592314</v>
+        <v>592904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>634732</v>
+        <v>634620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8237674352509687</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7939073639338307</v>
+        <v>0.7946980688072423</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8507614250791744</v>
+        <v>0.8506118706297926</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>59237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45651</v>
+        <v>46563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75587</v>
+        <v>74613</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1798457890022437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1385976506038494</v>
+        <v>0.1413664531229788</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2294872981201187</v>
+        <v>0.2265277506619219</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -5660,19 +5660,19 @@
         <v>72246</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>56386</v>
+        <v>56527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88152</v>
+        <v>89454</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1733765362765769</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1353151635898786</v>
+        <v>0.1356540337890779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.211546741224809</v>
+        <v>0.2146717623128665</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -5681,19 +5681,19 @@
         <v>131483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>111343</v>
+        <v>111455</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>153761</v>
+        <v>153171</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1762325647490313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1492385749208259</v>
+        <v>0.1493881293702074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2060926360661695</v>
+        <v>0.2053019311927579</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>81204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74251</v>
+        <v>73946</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84493</v>
+        <v>84551</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9386148283282623</v>
+        <v>0.9386148283282625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8582416676765421</v>
+        <v>0.8547243914202877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9766317575673752</v>
+        <v>0.9772983253539023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -6048,19 +6048,19 @@
         <v>62679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55199</v>
+        <v>56344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67220</v>
+        <v>67247</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8508359626799057</v>
+        <v>0.8508359626799058</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7493100238985143</v>
+        <v>0.7648520843979643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9124818697635975</v>
+        <v>0.912855978608116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -6069,19 +6069,19 @@
         <v>143883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135231</v>
+        <v>134753</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>150502</v>
+        <v>150018</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8982459341452445</v>
+        <v>0.8982459341452443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8442348276836392</v>
+        <v>0.8412510980700381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9395686747687916</v>
+        <v>0.9365498546462416</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>5311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2022</v>
+        <v>1964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12264</v>
+        <v>12569</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06138517167173764</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02336824243262485</v>
+        <v>0.02270167464609776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1417583323234582</v>
+        <v>0.1452756085797123</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -6119,19 +6119,19 @@
         <v>10988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6447</v>
+        <v>6420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18468</v>
+        <v>17323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1491640373200943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08751813023640281</v>
+        <v>0.08714402139188414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2506899761014859</v>
+        <v>0.2351479156020357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -6140,19 +6140,19 @@
         <v>16299</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9680</v>
+        <v>10164</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24951</v>
+        <v>25429</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1017540658547556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06043132523120841</v>
+        <v>0.06345014535375837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1557651723163608</v>
+        <v>0.1587489019299625</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>48988</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40348</v>
+        <v>39872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53517</v>
+        <v>53473</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8767914080855423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7221549641533392</v>
+        <v>0.7136324270965728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.957846775734583</v>
+        <v>0.9570677477354868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -6265,19 +6265,19 @@
         <v>64117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59066</v>
+        <v>59526</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66700</v>
+        <v>66781</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9254972806014778</v>
+        <v>0.9254972806014784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8525991346029618</v>
+        <v>0.8592408897808024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.962783437164792</v>
+        <v>0.9639529284100947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -6286,19 +6286,19 @@
         <v>113105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102428</v>
+        <v>102817</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118584</v>
+        <v>118561</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9037530433730777</v>
+        <v>0.9037530433730776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8184380586755784</v>
+        <v>0.8215533604092342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9475344495488391</v>
+        <v>0.9473509894666857</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>6884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2355</v>
+        <v>2399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15524</v>
+        <v>16000</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1232085919144577</v>
+        <v>0.1232085919144576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0421532242654172</v>
+        <v>0.04293225226451315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2778450358466615</v>
+        <v>0.2863675729034277</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -6336,19 +6336,19 @@
         <v>5161</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2578</v>
+        <v>2497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10212</v>
+        <v>9752</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07450271939852171</v>
+        <v>0.07450271939852175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03721656283520792</v>
+        <v>0.03604707158990535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1474008653970384</v>
+        <v>0.1407591102191977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -6357,19 +6357,19 @@
         <v>12045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6566</v>
+        <v>6589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22722</v>
+        <v>22333</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09624695662692241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05246555045116024</v>
+        <v>0.05264901053331422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1815619413244199</v>
+        <v>0.178446639590766</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>63145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58066</v>
+        <v>56426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66902</v>
+        <v>66674</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9003154162507134</v>
+        <v>0.9003154162507132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.827891028709385</v>
+        <v>0.8045159205743412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9538779812088881</v>
+        <v>0.9506196301867085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -6482,19 +6482,19 @@
         <v>37239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32219</v>
+        <v>32536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40415</v>
+        <v>40305</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8684833350949934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7514068225543138</v>
+        <v>0.7588094800525682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9425668846254088</v>
+        <v>0.9400030497059003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -6503,19 +6503,19 @@
         <v>100384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93317</v>
+        <v>93519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105304</v>
+        <v>105419</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8882383388218423</v>
+        <v>0.8882383388218424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8257039172439983</v>
+        <v>0.827495846482151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9317745102027301</v>
+        <v>0.9327887683096164</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>6992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3235</v>
+        <v>3463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12071</v>
+        <v>13711</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09968458374928676</v>
+        <v>0.09968458374928675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04612201879111132</v>
+        <v>0.04938036981329161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1721089712906146</v>
+        <v>0.195484079425659</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -6553,19 +6553,19 @@
         <v>5639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2463</v>
+        <v>2573</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10659</v>
+        <v>10342</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1315166649050066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0574331153745911</v>
+        <v>0.05999695029409942</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2485931774456859</v>
+        <v>0.2411905199474318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -6574,19 +6574,19 @@
         <v>12631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7711</v>
+        <v>7596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19698</v>
+        <v>19496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1117616611781576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06822548979726996</v>
+        <v>0.06721123169038344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1742960827560017</v>
+        <v>0.1725041535178489</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>171751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162767</v>
+        <v>162355</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178178</v>
+        <v>178054</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9190162773413405</v>
+        <v>0.9190162773413407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.870944164547804</v>
+        <v>0.8687402596339847</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9534048366078075</v>
+        <v>0.9527410554109348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -6699,19 +6699,19 @@
         <v>157576</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147914</v>
+        <v>147834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164430</v>
+        <v>164244</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8682679352865587</v>
+        <v>0.8682679352865588</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8150271266572968</v>
+        <v>0.8145897259638114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9060334831445721</v>
+        <v>0.9050077033370019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -6720,7 +6720,7 @@
         <v>329328</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>315548</v>
+        <v>316682</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>339545</v>
@@ -6729,10 +6729,10 @@
         <v>0.8940142960603782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8566064347158666</v>
+        <v>0.8596848745632465</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9217508230599575</v>
+        <v>0.9217493424480462</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>15135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8708</v>
+        <v>8832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24119</v>
+        <v>24531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08098372265865939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04659516339219227</v>
+        <v>0.04725894458906535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1290558354521959</v>
+        <v>0.131259740366015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -6770,19 +6770,19 @@
         <v>23907</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17053</v>
+        <v>17239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33569</v>
+        <v>33649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1317320647134413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09396651685542774</v>
+        <v>0.09499229666299835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1849728733427032</v>
+        <v>0.1854102740361889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -6794,16 +6794,16 @@
         <v>28825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52822</v>
+        <v>51688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1059857039396218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07824917694004237</v>
+        <v>0.07825065755195387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1433935652841334</v>
+        <v>0.1403151254367535</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>68068</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60574</v>
+        <v>61476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72229</v>
+        <v>73048</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8839576944726335</v>
+        <v>0.8839576944726334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7866343145459043</v>
+        <v>0.798347148348071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9379865634911303</v>
+        <v>0.9486212667036014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -6916,19 +6916,19 @@
         <v>122322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111329</v>
+        <v>110098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>129806</v>
+        <v>130008</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8225131544301034</v>
+        <v>0.8225131544301035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.748597268673923</v>
+        <v>0.7403163146225492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8728391046318362</v>
+        <v>0.8741979829947201</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>275</v>
@@ -6937,19 +6937,19 @@
         <v>190390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177329</v>
+        <v>176225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199365</v>
+        <v>200028</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8434746929550471</v>
+        <v>0.843474692955047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7856101247546298</v>
+        <v>0.7807225398639003</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8832365975105061</v>
+        <v>0.8861732677759202</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>8936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4775</v>
+        <v>3956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16430</v>
+        <v>15528</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1160423055273667</v>
+        <v>0.1160423055273666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06201343650886985</v>
+        <v>0.05137873329639876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2133656854540957</v>
+        <v>0.2016528516519291</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -6987,19 +6987,19 @@
         <v>26395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18911</v>
+        <v>18709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37388</v>
+        <v>38619</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1774868455698964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271608953681637</v>
+        <v>0.1258020170052799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2514027313260765</v>
+        <v>0.259683685377451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -7008,19 +7008,19 @@
         <v>35331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26356</v>
+        <v>25693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48392</v>
+        <v>49496</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1565253070449531</v>
+        <v>0.156525307044953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1167634024894938</v>
+        <v>0.1138267322240798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2143898752453702</v>
+        <v>0.2192774601360996</v>
       </c>
     </row>
     <row r="18">
@@ -7125,19 +7125,19 @@
         <v>116342</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107890</v>
+        <v>106706</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122656</v>
+        <v>122132</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8684090720545496</v>
+        <v>0.8684090720545498</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8053208133295158</v>
+        <v>0.7964841127862725</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9155417080322811</v>
+        <v>0.9116314883929915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -7146,19 +7146,19 @@
         <v>150827</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142159</v>
+        <v>141899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157070</v>
+        <v>157056</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8953472835293049</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8438911773448285</v>
+        <v>0.8423527726757826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9324073874270262</v>
+        <v>0.9323248377606137</v>
       </c>
     </row>
     <row r="20">
@@ -7188,19 +7188,19 @@
         <v>17629</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11315</v>
+        <v>11839</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26081</v>
+        <v>27265</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1315909279454504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0844582919677191</v>
+        <v>0.08836851160700816</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1946791866704848</v>
+        <v>0.2035158872137274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -7209,19 +7209,19 @@
         <v>17629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11386</v>
+        <v>11400</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26297</v>
+        <v>26557</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1046527164706952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06759261257297373</v>
+        <v>0.06767516223938642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1561088226551713</v>
+        <v>0.1576472273242176</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>467642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>452537</v>
+        <v>452513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478859</v>
+        <v>479351</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9153322693317708</v>
+        <v>0.9153322693317709</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8857666735911197</v>
+        <v>0.8857197444335451</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9372864612200014</v>
+        <v>0.9382495865057723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>810</v>
@@ -7334,19 +7334,19 @@
         <v>560272</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>541989</v>
+        <v>541573</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>575121</v>
+        <v>576418</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8619666323230549</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8338375695337528</v>
+        <v>0.8331987752153606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8848109332957361</v>
+        <v>0.8868059745138197</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1262</v>
@@ -7355,19 +7355,19 @@
         <v>1027915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1004210</v>
+        <v>1004865</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1047376</v>
+        <v>1046308</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8854524104540871</v>
+        <v>0.8854524104540874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8650327498039503</v>
+        <v>0.8655975904582549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9022167516914903</v>
+        <v>0.9012969640200258</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>43257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32040</v>
+        <v>31548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58362</v>
+        <v>58386</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08466773066822908</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06271353877999859</v>
+        <v>0.06175041349422762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1142333264088803</v>
+        <v>0.1142802555664547</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>126</v>
@@ -7405,19 +7405,19 @@
         <v>89721</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74872</v>
+        <v>73575</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108004</v>
+        <v>108420</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1380333676769452</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1151890667042637</v>
+        <v>0.1131940254861802</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1661624304662473</v>
+        <v>0.1668012247846392</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>172</v>
@@ -7426,19 +7426,19 @@
         <v>132977</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113516</v>
+        <v>114584</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>156682</v>
+        <v>156027</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1145475895459128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09778324830850971</v>
+        <v>0.09870303597997415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1349672501960494</v>
+        <v>0.1344024095417449</v>
       </c>
     </row>
     <row r="24">
